--- a/biology/Botanique/Salix_melanopsis/Salix_melanopsis.xlsx
+++ b/biology/Botanique/Salix_melanopsis/Salix_melanopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix melanopsis (en anglais, dusky willow), est une espèce de saule originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix bolanderiana Rowlee
 Salix exigua subsp. melanopsis (Nutt.) Cronquist
@@ -527,7 +541,7 @@
 Salix melanopsis var. tenerrima (L.F. Hend.) C.R. Ball
 Salix parksiana C.R. Ball
 Salix sessilifolia var. vancouverensis Brayshaw
-Salix tenerrima (L.F. Hend.) A. Heller[1],[2].</t>
+Salix tenerrima (L.F. Hend.) A. Heller,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +569,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Salix melanopsis est un arbuste qui atteint 4 mètres de haut. Il se propage parfois à partir de ses drageons pour former de véritables colonies envahissantes. Les feuilles pointues, ovales, lancéolées ou fines peuvent aller jusqu'à plus de 13 centimètres de long. Leur bordure peut être lisse ou dentée. Les chatons mesurent 5 ou 6 cm de long.
 </t>
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est native de l'Amérique du Nord, de la Colombie britannique et l'Alberta jusqu'à la Californie et le Colorado où elle pousse dans des zones humides comme les rives de cours d'eau et les prairies de montagnes subalpines, en substrats rocailleux et limoneux.
 </t>
